--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -463,13 +463,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ian Berg</t>
+          <t>Christopher Barker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15556 Brown Turnpike
-Port Bridgetfort, HI 58922</t>
+          <t>98193 Lauren Village Apt. 287
+Dawnberg, KY 67148</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,13 +491,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Holly Weber</t>
+          <t>Tracy Andrews</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3066 Taylor Haven Apt. 138
-Lake Laura, NJ 54908</t>
+          <t>526 Dylan Plains Apt. 662
+Oneillside, IN 23388</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,13 +519,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Benjamin Jenkins</t>
+          <t>Destiny Foster</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PSC 7598, Box 9289
-APO AE 18727</t>
+          <t>USNV Brown
+FPO AE 27753</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +547,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dr. Lisa Randolph</t>
+          <t>Mrs. Susan Adams DVM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5151 Parks Highway Apt. 452
-Kerriburgh, MI 98901</t>
+          <t>4446 Ann Forest Apt. 496
+East Dana, OK 68790</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +575,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Michael Hill PhD</t>
+          <t>Natalie Roberts</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1648 Jennifer Extension Apt. 449
-Tammyville, CT 01782</t>
+          <t>87182 Juan Pike Apt. 335
+East Markhaven, PW 94460</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,13 +603,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Elizabeth Reyes</t>
+          <t>James Gonzales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>479 Jeanette Summit Suite 903
-Johnborough, MH 87599</t>
+          <t>1452 Washington Overpass
+Michelleton, GA 73474</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,13 +631,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tammy Nguyen</t>
+          <t>Paula Ramos</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4955 Clark Shoal
-North Craig, UT 60695</t>
+          <t>55482 Amanda Route
+East Amandahaven, CO 90468</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -659,13 +659,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Hill</t>
+          <t>Latasha Barry</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>137 Jackson Mall
-Stevenfort, MO 18157</t>
+          <t>152 Ethan Burgs Apt. 637
+Jessicastad, AR 69943</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -687,13 +687,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raven Gonzales</t>
+          <t>Robin Montgomery</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>89143 Bell Ranch
-Maryberg, KY 63322</t>
+          <t>07762 Rodriguez Inlet
+South Jenniferchester, CA 60545</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -715,13 +715,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kimberly Jones</t>
+          <t>Donna Jackson</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unit 0455 Box 4674
-DPO AP 22091</t>
+          <t>PSC 0732, Box 2760
+APO AP 07884</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -743,13 +743,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>April Adkins</t>
+          <t>Brenda Gross</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>286 Porter Point
-Barretttown, NC 91856</t>
+          <t>663 Obrien Cape
+Port Sandramouth, DC 06304</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -771,13 +771,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>John Thomas</t>
+          <t>Victoria Schneider</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>065 Joel Lakes
-Martinezberg, GU 32747</t>
+          <t>309 Tom Islands Suite 779
+Hallchester, UT 93804</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -799,13 +799,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Steven Turner</t>
+          <t>Sandra Sloan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7053 Hernandez Shoals Apt. 446
-New Megan, MP 63479</t>
+          <t>98312 Becky Unions
+Kristinton, LA 85962</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -827,13 +827,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Timothy Reed</t>
+          <t>Laura Salas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>353 Johnson Mill
-Codybury, KS 04224</t>
+          <t>3761 Nguyen Manors Apt. 614
+Port Rebecca, PA 76939</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -855,13 +855,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jacob Thomas</t>
+          <t>Doris Harrington</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3568 Davis Motorway
-Ashleymouth, PA 13187</t>
+          <t>0438 Trujillo Pine
+Port Kathrynton, PA 98988</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -883,13 +883,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Christina Richards</t>
+          <t>Jody Wagner</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0573 Bruce Glens Apt. 917
-Greggport, DC 14589</t>
+          <t>USNS Wade
+FPO AE 90077</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -911,13 +911,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bradley Edwards</t>
+          <t>Michael Mack</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5558 Karen Crest
-New Chelseyport, NE 03096</t>
+          <t>2062 Steven Throughway
+South Patriciamouth, NH 65283</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -939,13 +939,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nicholas Klein</t>
+          <t>Heather Smith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>30166 Kelly Divide Suite 379
-West Joshuaborough, WY 83031</t>
+          <t>59221 Sarah Island Suite 420
+Port Melissa, NM 57645</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -967,13 +967,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Susan Banks</t>
+          <t>Shannon Turner</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>496 Wanda Shoals Suite 717
-Portermouth, IN 46223</t>
+          <t>874 Chavez Circles
+Alexanderville, FL 71439</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -995,13 +995,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Deanna Hanson</t>
+          <t>Beth Cummings</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4315 Randall Track Apt. 321
-Morrisonshire, NM 92301</t>
+          <t>545 Michelle Square
+Charlesborough, LA 75770</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1023,13 +1023,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Robert Sanders</t>
+          <t>Samuel Miller</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>69646 Angel Meadows
-Diazmouth, MH 18662</t>
+          <t>357 Morgan Road Suite 358
+South Terri, FL 23383</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1051,13 +1051,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jacob Bishop</t>
+          <t>Alexis Boyd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8043 David Divide Suite 046
-Kellyborough, PW 89530</t>
+          <t>29902 Alejandro Parkways
+Meadowsmouth, SD 42195</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1079,13 +1079,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joann Fitzgerald</t>
+          <t>Danielle Jackson</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>60496 Jacob Unions Apt. 388
-Lake Matthew, PA 29331</t>
+          <t>98220 Michael Springs Suite 200
+Armstrongton, MD 88324</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1107,13 +1107,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jason Thompson</t>
+          <t>John Long</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8609 Julie Trafficway Suite 437
-South Jasonberg, MH 02092</t>
+          <t>51024 Morris Orchard Apt. 994
+New Danieltown, AR 33980</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1135,13 +1135,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Patty Gonzalez</t>
+          <t>Lisa Smith</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01690 Kathleen Turnpike
-Danielton, VA 20795</t>
+          <t>PSC 7547, Box 9014
+APO AP 46389</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1163,13 +1163,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Christopher Nielsen</t>
+          <t>Diane Marshall</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>33686 Patricia Ports Apt. 821
-Lake Brittanyfort, DE 63549</t>
+          <t>2580 Richard Stream
+North Justinton, MD 14315</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1191,13 +1191,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tracy Edwards</t>
+          <t>April Chapman</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>98898 Ryan Villages
-South Jacobburgh, WV 15783</t>
+          <t>PSC 0120, Box 1932
+APO AE 55887</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1219,13 +1219,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Karen Morgan</t>
+          <t>Deborah Carpenter</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>67308 Glover Corner
-Ashleyton, DC 15369</t>
+          <t>24014 Carey Light Apt. 777
+Andreville, SD 12594</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1247,13 +1247,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kristen Norman</t>
+          <t>Joshua Vargas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>87794 Anthony Meadow Apt. 624
-Jessicamouth, FL 23556</t>
+          <t>3277 Jennifer Union
+West Danielstad, AZ 49536</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1275,13 +1275,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>David Mendez</t>
+          <t>Christopher Terrell</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3460 Thomas Corners
-Brownchester, ID 45930</t>
+          <t>34108 Katrina Way
+West Alexandriamouth, MI 67164</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1303,13 +1303,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mackenzie Perez</t>
+          <t>Kenneth Morgan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09147 Shane Underpass Suite 982
-New Amandabury, NC 37011</t>
+          <t>32748 Jason Meadows
+Crawfordfurt, MI 38542</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1331,13 +1331,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brittney Flores</t>
+          <t>Meghan Smith</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PSC 7749, Box 5887
-APO AP 31634</t>
+          <t>87346 Moore Cliffs
+Port Brenda, RI 06876</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1359,13 +1359,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rachel Winters</t>
+          <t>Robin Smith</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>50636 Jason Tunnel
-Samuelport, DC 53430</t>
+          <t>32014 Davis Lake Suite 472
+North Edwardport, UT 29636</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1387,13 +1387,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rebecca Garrett</t>
+          <t>Victor Stevens</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>889 Barber Stravenue
-Huntstad, KY 26357</t>
+          <t>83017 Rojas Ridge
+Wrightside, FM 22832</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1415,13 +1415,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kenneth Blake</t>
+          <t>Margaret Nelson</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21586 Austin Route
-Evansfurt, RI 61107</t>
+          <t>70280 Virginia Harbors
+Danashire, RI 26586</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1443,13 +1443,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Richard Johnson</t>
+          <t>Jessica Wood</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6737 Daniels Pine
-North Andrea, PA 39639</t>
+          <t>8643 Powers Inlet Apt. 139
+Sandraville, TN 82904</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1471,13 +1471,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Susan Cox</t>
+          <t>Louis Strong</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>65451 Matthew Plains Suite 996
-Ginaview, AK 29903</t>
+          <t>Unit 0201 Box 5723
+DPO AP 27924</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1499,13 +1499,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Andrea Bennett</t>
+          <t>Angela Melton</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>603 Rebecca Shores Suite 268
-Port Jennifer, UT 47192</t>
+          <t>785 Williams Corners
+Mitchellburgh, WI 92730</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1527,13 +1527,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Michelle Shaw</t>
+          <t>Kaitlyn Edwards</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>847 Nicholas Squares Apt. 826
-Haroldland, WI 33827</t>
+          <t>302 Nelson Shoal Suite 972
+Burnsport, WV 48516</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1555,13 +1555,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brian Shepherd</t>
+          <t>Stephanie Malone</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>42149 Griffith Corners
-Lake Cindy, AL 84662</t>
+          <t>761 Simpson Ridge Apt. 619
+Millsmouth, DE 86769</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1583,13 +1583,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kevin Miller DVM</t>
+          <t>Nancy Barker</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>41876 Ashley Walks
-Sullivanchester, TN 05559</t>
+          <t>1526 Randy Common
+West Wendy, IN 18552</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1611,13 +1611,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Stacy Riley</t>
+          <t>Lori Vargas</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>886 Ramirez Key Apt. 733
-Franklinmouth, MO 47169</t>
+          <t>2327 Huynh Hill
+South Kaitlynborough, NV 42035</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1639,13 +1639,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brad Smith</t>
+          <t>Sharon Snyder</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5985 Cochran Streets
-East Christophermouth, LA 79416</t>
+          <t>84622 David Valley Apt. 821
+Rossmouth, NE 06855</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1667,13 +1667,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Connor Burgess</t>
+          <t>Tyler Barrett</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1923 Mary Glens Suite 874
-North Jasmine, NH 31465</t>
+          <t>48881 Osborne Court Apt. 149
+East Christine, MN 51469</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1695,13 +1695,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Zachary Hart</t>
+          <t>Megan Garcia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>62824 Murphy Pine Suite 008
-South Michaelbury, WV 31144</t>
+          <t>647 Jones Rapids Apt. 096
+Lake Susanstad, ID 03070</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1723,13 +1723,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mr. Steven Decker</t>
+          <t>Scott Walker</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2368 Hill Extensions
-Lake Sherylland, MO 48465</t>
+          <t>4727 Riley Forges Apt. 295
+Weberside, OK 48396</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1751,13 +1751,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Christopher Villanueva Jr.</t>
+          <t>Ryan Wilson</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>27547 Smith Islands
-Port Douglasburgh, UT 64033</t>
+          <t>12996 Bryan Mountain
+Nelsonville, OR 80554</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1779,13 +1779,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kelly Burnett</t>
+          <t>Alan Clark</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>291 Mark Harbor
-East Evanland, NE 79081</t>
+          <t>USNS Case
+FPO AP 62710</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1807,13 +1807,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Patrick Campos</t>
+          <t>Kimberly Lee</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>60036 Denise Pines Apt. 528
-East Christinatown, ID 45313</t>
+          <t>74255 Edwards Trail
+North Tracy, MA 38394</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1835,13 +1835,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Monica Cook</t>
+          <t>Kelly Meyers</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7196 Johnson Brooks
-Bellfort, GU 74885</t>
+          <t>871 Chad Lodge
+Nicolebury, KY 52310</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1863,13 +1863,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>George Lopez</t>
+          <t>Maria Washington</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>712 Melanie Highway
-North Thomas, IL 01885</t>
+          <t>04374 Frank Island
+Isaiahtown, NC 31750</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1891,13 +1891,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Timothy Medina</t>
+          <t>Kevin Ramirez</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>73169 Alan Course
-North Nicoleburgh, PW 55994</t>
+          <t>826 Kevin Course
+West Glennville, OR 26445</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1919,13 +1919,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Patricia Hoover</t>
+          <t>William Cook</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3211 John Street
-New Elizabethfurt, DE 96090</t>
+          <t>5268 Scott Turnpike
+South James, RI 18654</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1947,13 +1947,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Melissa Welch</t>
+          <t>Christy Kirby</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>402 Emily Island
-Amandaburgh, PW 57892</t>
+          <t>93416 Howard Cove
+New Lisa, IL 73995</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1975,13 +1975,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Melinda Garcia</t>
+          <t>Angela Lopez</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>86562 Fernandez Junctions Apt. 912
-Lake Emily, MN 58965</t>
+          <t>04235 Johnson Burgs
+Timothyton, VI 08579</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2003,13 +2003,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Amanda Smith</t>
+          <t>Chris Espinoza</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>906 Victoria Path Apt. 582
-South Matthew, NE 70827</t>
+          <t>5192 Taylor Springs
+Port Katherine, WY 99019</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2031,13 +2031,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Keith Dean</t>
+          <t>Joseph Stewart</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>33892 Soto Forges
-West Kristin, PR 96687</t>
+          <t>55678 Stephen Views
+Port Matthew, TX 71246</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2059,13 +2059,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Michael Willis</t>
+          <t>Chelsea Cervantes</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5527 Tyler Extensions
-Jessicaport, MH 84804</t>
+          <t>747 Thomas Forges
+South Eriktown, ID 42836</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2087,13 +2087,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel Harrison</t>
+          <t>Michael Acosta</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9081 Manuel Walk Apt. 751
-Zacharyberg, NE 68955</t>
+          <t>7558 Ashley Squares
+Turnerborough, MH 69388</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2115,13 +2115,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Martin Johnson</t>
+          <t>Bobby Brock</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>609 Nelson Stravenue
-South Paulfurt, CT 93109</t>
+          <t>6286 Michael Via
+East Derrickmouth, KY 46300</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2143,13 +2143,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>William Lee</t>
+          <t>Laurie Williams</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8105 Ryan Islands Suite 596
-North April, RI 92170</t>
+          <t>7153 Gloria Branch Apt. 766
+Erinberg, ME 81634</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2171,13 +2171,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>John Callahan</t>
+          <t>Cameron Tyler</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6427 Pacheco Burg Apt. 219
-Lake Briannaberg, MA 88734</t>
+          <t>267 Bartlett Shoal Apt. 757
+Micheletown, RI 47983</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2199,13 +2199,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Briana Ford</t>
+          <t>Harold Nelson</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Unit 3493 Box 6759
-DPO AP 52025</t>
+          <t>77824 Ballard Cove
+North Jeffreyhaven, LA 93231</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2227,13 +2227,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Darlene Daniel</t>
+          <t>Evan Thomas</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3051 Bennett Point
-Tiffanyfurt, VI 56567</t>
+          <t>64795 Whitaker Route
+Lake John, WI 44514</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2255,13 +2255,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Andrew Lawrence</t>
+          <t>Susan Willis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>93739 Carl Ferry Apt. 516
-New Dana, IA 67972</t>
+          <t>6347 Byrd Square
+West Marie, NE 41141</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2283,13 +2283,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Phillip Merritt</t>
+          <t>Alex Clark</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>194 Johnson Plaza Suite 911
-Lake Jonathon, WY 43503</t>
+          <t>6028 Gonzalez Corner Apt. 318
+Brandonburgh, AK 25149</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2311,13 +2311,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Johnny Manning</t>
+          <t>Derek Brown</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>449 Jennifer Ferry Suite 790
-North Courtney, NV 64945</t>
+          <t>2300 Jackson Mountains Suite 350
+New Mark, NV 46928</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2339,13 +2339,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Steven Cole</t>
+          <t>Jeffrey Clark</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USS Kent
-FPO AE 59788</t>
+          <t>2738 Eric Dam Suite 409
+New Leonardhaven, AK 77113</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2367,13 +2367,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Donald Black</t>
+          <t>Ashley Rosario</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>096 David Station Apt. 169
-Lake Amandachester, MI 54438</t>
+          <t>27890 Hodges Stream Suite 354
+East Joshua, KS 03724</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2395,13 +2395,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kimberly Fox</t>
+          <t>Robert Turner</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>678 Montgomery Hill
-South Randy, MA 31847</t>
+          <t>17794 Stacey Groves
+Haleborough, VT 97812</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2423,13 +2423,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Veronica Rivera</t>
+          <t>Jeremy Mathews</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>39406 Alexis Knolls
-South Jennifer, GA 49327</t>
+          <t>26699 Jones Center
+North Roger, NE 15288</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2451,13 +2451,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Benjamin Wyatt</t>
+          <t>William Cooper</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2869 Richard Pine Apt. 745
-West Dawnbury, WA 41447</t>
+          <t>116 Laurie Bypass Suite 613
+New Patriciatown, TN 31187</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2479,13 +2479,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Miss Ashley Guzman</t>
+          <t>Amanda Miller</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>981 Evans Ford Apt. 028
-East James, MI 86262</t>
+          <t>22798 Hancock Springs
+West Sarahland, PR 16652</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2507,13 +2507,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Victoria Nelson</t>
+          <t>Christopher Knight</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>805 Collins Coves
-East John, WV 39186</t>
+          <t>0266 Bryan Cliff Apt. 826
+Muellershire, UT 10654</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2535,13 +2535,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lisa Kent</t>
+          <t>John Fernandez</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5257 Thomas Circles
-Cherylburgh, ME 41125</t>
+          <t>273 Frye Shoal Apt. 085
+Lake Jeremymouth, NC 85577</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2563,13 +2563,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Teresa Macias</t>
+          <t>Brian Stewart</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>73889 Bradley Heights
-Jonesmouth, FM 65507</t>
+          <t>360 Gabriel Brooks Suite 439
+Laurenville, PW 14748</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2591,13 +2591,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Andrew Ellison</t>
+          <t>Terry Shaw</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>823 Hoffman Terrace
-North Gina, TN 70694</t>
+          <t>391 Edward Land
+Charlesfurt, AZ 18951</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2619,13 +2619,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Jonathan Villarreal</t>
+          <t>Lori Thompson</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>41401 Jason Fields Apt. 837
-Armstrongton, PR 26666</t>
+          <t>16693 Stout Club Suite 509
+Annabury, MS 76318</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2647,13 +2647,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>David Gray</t>
+          <t>Teresa Guzman</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>59706 Blanchard Plains
-West Michaelmouth, VI 32455</t>
+          <t>USNV Schroeder
+FPO AP 14019</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2675,13 +2675,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Yolanda Leonard</t>
+          <t>Stephen Larson</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>USCGC Williams
-FPO AE 48582</t>
+          <t>6110 Perry Walk
+West Hunter, WV 52390</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2703,13 +2703,13 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kimberly Anderson</t>
+          <t>Megan Castillo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>82775 Perez Knolls
-South Eric, SD 29575</t>
+          <t>073 Sarah Springs
+East Paultown, WA 93175</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2731,13 +2731,13 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cindy Peterson DDS</t>
+          <t>Lori Hernandez</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>341 Ashley Trafficway
-New Angelaburgh, AZ 96830</t>
+          <t>3937 Berger Points Apt. 688
+New Tinashire, TN 96011</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2759,13 +2759,13 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Evan Crosby</t>
+          <t>Matthew Rivera</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2125 Cody Cape
-Millsside, TN 29656</t>
+          <t>416 Mitchell Center
+Jonathanview, CT 75520</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2787,13 +2787,13 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Rachael Williams</t>
+          <t>Natalie Brown</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PSC 7746, Box 8215
-APO AE 92347</t>
+          <t>245 Campbell Summit
+East David, AS 49820</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2815,13 +2815,13 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ryan Flores</t>
+          <t>Edward Baker</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>54791 Brandon Well Apt. 606
-Salasbury, KY 71802</t>
+          <t>285 Paula Court
+Heidistad, AL 73866</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2843,13 +2843,13 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Brandon Atkinson</t>
+          <t>Matthew Berger</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>297 Miguel Expressway
-Lake Karentown, ND 59205</t>
+          <t>77452 Jeremy Ridge
+Frazierport, TX 21322</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2871,13 +2871,13 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dennis Wallace</t>
+          <t>Ian Hill</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1244 Gregory Fort
-North Kevin, IN 36787</t>
+          <t>238 Emily Streets
+North Jamesview, AS 69166</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2899,13 +2899,13 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lindsey Harding</t>
+          <t>Larry Bond</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PSC 9076, Box 2020
-APO AP 12138</t>
+          <t>0915 Hoffman Way Suite 537
+South Rachel, ND 87347</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2927,13 +2927,13 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cheryl Foster</t>
+          <t>Devin Bennett</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>33607 Scott Via Apt. 962
-Lake Patricia, OR 33027</t>
+          <t>161 Edwards Highway
+Millerville, DE 30403</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2955,13 +2955,13 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Joseph Mckinney</t>
+          <t>Jamie Douglas</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8135 Marshall Extensions Suite 349
-New Markbury, NC 60065</t>
+          <t>06474 Lopez Estates Suite 291
+South Douglasview, TX 96466</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2983,13 +2983,13 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Paul Austin</t>
+          <t>Jennifer Pearson</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>45529 Keller Crescent
-Christopherborough, FM 73856</t>
+          <t>USCGC Ortiz
+FPO AE 62009</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3011,13 +3011,13 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Michelle Wilson</t>
+          <t>Cole Smith</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>736 Reynolds Flat Apt. 348
-New Jameston, AR 84479</t>
+          <t>4208 Austin Plains
+North Julie, CT 30129</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3039,13 +3039,13 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Steven Gates</t>
+          <t>Jerry Watson</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>84733 Maria Pine Suite 451
-Lake Sarahland, MH 48916</t>
+          <t>966 Meredith Brook
+North Caleb, DC 49755</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3067,13 +3067,13 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sarah Horton</t>
+          <t>Michael Carson</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PSC 9193, Box 3098
-APO AP 95592</t>
+          <t>8116 Harmon Glen
+Alecton, MH 13163</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3095,13 +3095,13 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Patricia Norton</t>
+          <t>Joshua Perez</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>534 Herman Center Apt. 062
-West Jasonborough, IN 74414</t>
+          <t>26499 Michael Plaza Suite 155
+Kimberlymouth, FM 27349</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3123,13 +3123,13 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Susan Chapman</t>
+          <t>Christine Ali</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>24637 Matthew Center
-North Joanna, CO 62940</t>
+          <t>574 Benjamin Forks
+Port Kelsey, VI 54953</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3151,13 +3151,13 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Robert Walsh</t>
+          <t>Holly Anderson</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>477 Kimberly Motorway
-Masseytown, NY 03093</t>
+          <t>94556 Jennifer Lane Suite 547
+Kevinborough, MN 35479</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3179,13 +3179,13 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wayne Solis</t>
+          <t>Craig Clay</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7003 Ana Station Apt. 265
-Larsonport, MN 79589</t>
+          <t>8591 Harvey Ports Suite 961
+Matthewberg, MT 08218</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3207,13 +3207,13 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Robert Vega</t>
+          <t>Bruce Sexton</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>528 Scott Lock Suite 309
-Jonesstad, RI 77686</t>
+          <t>55666 Sandra Skyway
+Lake Jenniferborough, RI 27018</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3235,13 +3235,13 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Victoria Ortiz</t>
+          <t>Shannon Heath MD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>63529 Smith Alley Apt. 110
-Gibsonshire, NM 25721</t>
+          <t>57730 Steven Isle
+Codyside, SC 00648</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>RESERVATIONS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>LOG</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>INBOX</t>
         </is>
@@ -463,13 +468,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Christopher Barker</t>
+          <t>James Maldonado</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>98193 Lauren Village Apt. 287
-Dawnberg, KY 67148</t>
+          <t>PSC 3188, Box 5957
+APO AP 95054</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,6 +488,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -491,13 +501,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tracy Andrews</t>
+          <t>Richard Rogers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>526 Dylan Plains Apt. 662
-Oneillside, IN 23388</t>
+          <t>2380 Crawford Mountains Apt. 249
+South Tashaburgh, VT 67393</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,6 +521,11 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -519,13 +534,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Destiny Foster</t>
+          <t>Dr. Kelly Rose DVM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USNV Brown
-FPO AE 27753</t>
+          <t>USNS Jones
+FPO AA 63332</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +554,11 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -547,13 +567,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mrs. Susan Adams DVM</t>
+          <t>Matthew Sampson</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4446 Ann Forest Apt. 496
-East Dana, OK 68790</t>
+          <t>583 Lewis Brooks Suite 518
+North Jonathan, IN 92020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,6 +587,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -575,13 +600,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Natalie Roberts</t>
+          <t>Eric Beltran</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>87182 Juan Pike Apt. 335
-East Markhaven, PW 94460</t>
+          <t>318 Jacob Rue Suite 390
+Freemanfurt, MS 53631</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,6 +620,11 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -603,13 +633,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>James Gonzales</t>
+          <t>Emily Kelley</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1452 Washington Overpass
-Michelleton, GA 73474</t>
+          <t>1946 Katrina Flats Suite 592
+Natalieborough, TN 74188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,6 +653,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -631,13 +666,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paula Ramos</t>
+          <t>Megan West</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55482 Amanda Route
-East Amandahaven, CO 90468</t>
+          <t>30040 York Isle Suite 435
+Lake Samanthamouth, UT 11201</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -651,6 +686,11 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -659,13 +699,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Latasha Barry</t>
+          <t>Joshua Sims</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>152 Ethan Burgs Apt. 637
-Jessicastad, AR 69943</t>
+          <t>USNS Garcia
+FPO AA 58900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -679,6 +719,11 @@
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -687,13 +732,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Robin Montgomery</t>
+          <t>Tara Diaz</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07762 Rodriguez Inlet
-South Jenniferchester, CA 60545</t>
+          <t>0638 Glenn Forge
+South Tracy, NY 66385</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -707,6 +752,11 @@
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -715,13 +765,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Donna Jackson</t>
+          <t>David Sullivan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PSC 0732, Box 2760
-APO AP 07884</t>
+          <t>80558 Bartlett Mountains
+South Lisafort, VI 30721</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -735,6 +785,11 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -743,13 +798,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brenda Gross</t>
+          <t>Melissa Johnson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>663 Obrien Cape
-Port Sandramouth, DC 06304</t>
+          <t>7516 Townsend Path Apt. 416
+Michaelborough, ND 89595</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -763,6 +818,11 @@
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -771,13 +831,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Victoria Schneider</t>
+          <t>Kelly Wilson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>309 Tom Islands Suite 779
-Hallchester, UT 93804</t>
+          <t>9782 Cole Gateway Suite 455
+East Danastad, CO 45019</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -791,6 +851,11 @@
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -799,13 +864,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sandra Sloan</t>
+          <t>Melissa Kim</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>98312 Becky Unions
-Kristinton, LA 85962</t>
+          <t>6989 Ray Mills Apt. 825
+Lake Collinview, PW 42569</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -819,6 +884,11 @@
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -827,13 +897,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Laura Salas</t>
+          <t>Michael Liu</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3761 Nguyen Manors Apt. 614
-Port Rebecca, PA 76939</t>
+          <t>9675 Samantha Highway Suite 292
+Sandrafurt, OH 15911</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -847,6 +917,11 @@
         </is>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -855,13 +930,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Doris Harrington</t>
+          <t>Amy Smith</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0438 Trujillo Pine
-Port Kathrynton, PA 98988</t>
+          <t>247 Donna Vista Suite 347
+Port Devinton, PR 09210</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -875,6 +950,11 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -883,13 +963,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jody Wagner</t>
+          <t>Donna Carter</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USNS Wade
-FPO AE 90077</t>
+          <t>29443 Kelly Dale Apt. 603
+South Tarachester, MN 21911</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -903,6 +983,11 @@
         </is>
       </c>
       <c r="E17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -911,13 +996,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Michael Mack</t>
+          <t>Robert Parsons</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2062 Steven Throughway
-South Patriciamouth, NH 65283</t>
+          <t>08049 Gregory Heights
+North Matthew, VI 64512</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -931,6 +1016,11 @@
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -939,13 +1029,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Heather Smith</t>
+          <t>Amy Roman</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>59221 Sarah Island Suite 420
-Port Melissa, NM 57645</t>
+          <t>12466 Ronald Wall
+New Michaelport, VA 33426</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -959,6 +1049,11 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -967,13 +1062,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shannon Turner</t>
+          <t>Kevin Watson</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>874 Chavez Circles
-Alexanderville, FL 71439</t>
+          <t>179 Sean Shores
+West Madelineshire, PA 92730</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -987,6 +1082,11 @@
         </is>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -995,13 +1095,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Beth Cummings</t>
+          <t>Paul Johnson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>545 Michelle Square
-Charlesborough, LA 75770</t>
+          <t>0633 Thomas Meadow Apt. 565
+Melissastad, NJ 35952</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1015,6 +1115,11 @@
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1023,13 +1128,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samuel Miller</t>
+          <t>Mr. David Smith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>357 Morgan Road Suite 358
-South Terri, FL 23383</t>
+          <t>02591 Lowery Viaduct Apt. 837
+Sheriland, OH 01631</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1043,6 +1148,11 @@
         </is>
       </c>
       <c r="E22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1051,13 +1161,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alexis Boyd</t>
+          <t>Sandy Palmer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29902 Alejandro Parkways
-Meadowsmouth, SD 42195</t>
+          <t>706 Kevin Brooks Apt. 986
+East Aaron, VT 78091</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1071,6 +1181,11 @@
         </is>
       </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1079,13 +1194,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Danielle Jackson</t>
+          <t>Stephanie Warner</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>98220 Michael Springs Suite 200
-Armstrongton, MD 88324</t>
+          <t>858 Baker Lodge Apt. 238
+New Tiffanymouth, FL 36068</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1099,6 +1214,11 @@
         </is>
       </c>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1107,13 +1227,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>John Long</t>
+          <t>Jane Sherman</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>51024 Morris Orchard Apt. 994
-New Danieltown, AR 33980</t>
+          <t>7704 Butler Islands Apt. 266
+West Michaelfurt, CA 53476</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1127,6 +1247,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1135,13 +1260,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lisa Smith</t>
+          <t>Luis Lopez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PSC 7547, Box 9014
-APO AP 46389</t>
+          <t>324 Hall Meadows Suite 267
+North Kristentown, PW 47646</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1155,6 +1280,11 @@
         </is>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1163,13 +1293,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Diane Marshall</t>
+          <t>Randy Williams</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2580 Richard Stream
-North Justinton, MD 14315</t>
+          <t>838 Nichole Walks
+South Travistown, AK 42860</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1183,6 +1313,11 @@
         </is>
       </c>
       <c r="E27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1191,13 +1326,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>April Chapman</t>
+          <t>Blake Gomez</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PSC 0120, Box 1932
-APO AE 55887</t>
+          <t>551 Willie Orchard
+Port Christopherton, ND 03213</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1211,6 +1346,11 @@
         </is>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1219,13 +1359,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Deborah Carpenter</t>
+          <t>Nancy Mcclure</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24014 Carey Light Apt. 777
-Andreville, SD 12594</t>
+          <t>USNV Spencer
+FPO AP 26114</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1239,6 +1379,11 @@
         </is>
       </c>
       <c r="E29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1247,13 +1392,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Joshua Vargas</t>
+          <t>Lance Garza</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3277 Jennifer Union
-West Danielstad, AZ 49536</t>
+          <t>PSC 5760, Box 2853
+APO AP 44828</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1267,6 +1412,11 @@
         </is>
       </c>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1275,13 +1425,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Christopher Terrell</t>
+          <t>John King</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>34108 Katrina Way
-West Alexandriamouth, MI 67164</t>
+          <t>12719 Natalie Crossroad Apt. 781
+Frenchshire, MN 69297</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1295,6 +1445,11 @@
         </is>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1303,13 +1458,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kenneth Morgan</t>
+          <t>Joseph Carter</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32748 Jason Meadows
-Crawfordfurt, MI 38542</t>
+          <t>45255 Anderson Key
+Floresfort, DE 13719</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1323,6 +1478,11 @@
         </is>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1331,13 +1491,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Meghan Smith</t>
+          <t>John Curry</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>87346 Moore Cliffs
-Port Brenda, RI 06876</t>
+          <t>6931 Joseph Extension
+Marcusfort, MS 59414</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1351,6 +1511,11 @@
         </is>
       </c>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1359,13 +1524,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Robin Smith</t>
+          <t>Diane Jacobs</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32014 Davis Lake Suite 472
-North Edwardport, UT 29636</t>
+          <t>80989 Alexandria Street
+South Michaela, FM 02209</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1379,6 +1544,11 @@
         </is>
       </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1387,13 +1557,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Victor Stevens</t>
+          <t>Valerie Wallace</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>83017 Rojas Ridge
-Wrightside, FM 22832</t>
+          <t>347 Sexton Forge
+Ramosland, PA 27046</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1407,6 +1577,11 @@
         </is>
       </c>
       <c r="E35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1415,13 +1590,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Margaret Nelson</t>
+          <t>Matthew Johnson</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>70280 Virginia Harbors
-Danashire, RI 26586</t>
+          <t>547 Rebecca Ford
+Aguilarmouth, UT 24782</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1435,6 +1610,11 @@
         </is>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1443,13 +1623,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jessica Wood</t>
+          <t>Christopher Shaw</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8643 Powers Inlet Apt. 139
-Sandraville, TN 82904</t>
+          <t>5658 Blake Lakes Suite 048
+South Paulchester, OK 09459</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1463,6 +1643,11 @@
         </is>
       </c>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1471,13 +1656,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Louis Strong</t>
+          <t>Kelly Estrada</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Unit 0201 Box 5723
-DPO AP 27924</t>
+          <t>26820 Amber Lake Apt. 746
+Lake Paulton, IA 87614</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1491,6 +1676,11 @@
         </is>
       </c>
       <c r="E38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1499,13 +1689,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Angela Melton</t>
+          <t>Anthony Kennedy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>785 Williams Corners
-Mitchellburgh, WI 92730</t>
+          <t>256 Billy Crossing
+Michellemouth, PW 43042</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1519,6 +1709,11 @@
         </is>
       </c>
       <c r="E39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1527,13 +1722,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kaitlyn Edwards</t>
+          <t>Erin Hobbs</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>302 Nelson Shoal Suite 972
-Burnsport, WV 48516</t>
+          <t>87106 Lauren Forge Suite 820
+Lake Stacyfort, MP 97593</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1547,6 +1742,11 @@
         </is>
       </c>
       <c r="E40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1555,13 +1755,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stephanie Malone</t>
+          <t>Maria Jones</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>761 Simpson Ridge Apt. 619
-Millsmouth, DE 86769</t>
+          <t>9364 Ray Pike
+Taylormouth, KS 73697</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1575,6 +1775,11 @@
         </is>
       </c>
       <c r="E41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1583,13 +1788,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nancy Barker</t>
+          <t>Michael Jackson</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1526 Randy Common
-West Wendy, IN 18552</t>
+          <t>88198 Barbara Rest Apt. 245
+Wilsonchester, FM 34541</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1603,6 +1808,11 @@
         </is>
       </c>
       <c r="E42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1611,13 +1821,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lori Vargas</t>
+          <t>Samuel Wyatt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2327 Huynh Hill
-South Kaitlynborough, NV 42035</t>
+          <t>812 Tony Mission
+South Andreafurt, MN 82914</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1631,6 +1841,11 @@
         </is>
       </c>
       <c r="E43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1639,13 +1854,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sharon Snyder</t>
+          <t>Jamie Cook DDS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>84622 David Valley Apt. 821
-Rossmouth, NE 06855</t>
+          <t>5609 Hanson Lake
+South Danielleton, MP 40793</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1659,6 +1874,11 @@
         </is>
       </c>
       <c r="E44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1667,13 +1887,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tyler Barrett</t>
+          <t>Lauren Brown</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>48881 Osborne Court Apt. 149
-East Christine, MN 51469</t>
+          <t>679 Brian Drives Suite 018
+Lake Brandonport, PA 54589</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1687,6 +1907,11 @@
         </is>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1695,13 +1920,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Megan Garcia</t>
+          <t>Joshua George</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>647 Jones Rapids Apt. 096
-Lake Susanstad, ID 03070</t>
+          <t>6989 Sarah Haven Suite 171
+Margaretshire, NY 26315</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1715,6 +1940,11 @@
         </is>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1723,13 +1953,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Scott Walker</t>
+          <t>Nicolas Banks</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4727 Riley Forges Apt. 295
-Weberside, OK 48396</t>
+          <t>419 Nielsen Well
+Morrisonchester, FL 62930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1743,6 +1973,11 @@
         </is>
       </c>
       <c r="E47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1751,13 +1986,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ryan Wilson</t>
+          <t>Jennifer Baker</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12996 Bryan Mountain
-Nelsonville, OR 80554</t>
+          <t>63759 Allen Walk Suite 925
+Alanstad, TX 66355</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1771,6 +2006,11 @@
         </is>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1779,13 +2019,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alan Clark</t>
+          <t>Abigail Perkins</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>USNS Case
-FPO AP 62710</t>
+          <t>2272 Amanda Springs
+Fischerburgh, WY 70916</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1799,6 +2039,11 @@
         </is>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1807,13 +2052,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kimberly Lee</t>
+          <t>Barbara Elliott</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>74255 Edwards Trail
-North Tracy, MA 38394</t>
+          <t>31741 Kayla Stream
+North Krystal, VI 91664</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1827,6 +2072,11 @@
         </is>
       </c>
       <c r="E50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1835,13 +2085,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kelly Meyers</t>
+          <t>Melissa Santos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>871 Chad Lodge
-Nicolebury, KY 52310</t>
+          <t>90333 Brittany Cape
+West Eric, DE 98408</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1855,6 +2105,11 @@
         </is>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1863,13 +2118,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Maria Washington</t>
+          <t>Shannon Robertson</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>04374 Frank Island
-Isaiahtown, NC 31750</t>
+          <t>863 Rodriguez Rapid
+Port Diamondmouth, NC 86135</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1883,6 +2138,11 @@
         </is>
       </c>
       <c r="E52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1891,13 +2151,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kevin Ramirez</t>
+          <t>Terri Thomas</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>826 Kevin Course
-West Glennville, OR 26445</t>
+          <t>90974 James Greens Apt. 786
+Lake Josephmouth, DC 15092</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1911,6 +2171,11 @@
         </is>
       </c>
       <c r="E53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1919,13 +2184,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>William Cook</t>
+          <t>April Todd DVM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5268 Scott Turnpike
-South James, RI 18654</t>
+          <t>404 Zoe Cape Suite 316
+New Rachel, SC 78384</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1939,6 +2204,11 @@
         </is>
       </c>
       <c r="E54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1947,13 +2217,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Christy Kirby</t>
+          <t>Eric Walker</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>93416 Howard Cove
-New Lisa, IL 73995</t>
+          <t>035 Richard Gardens Apt. 004
+North Jennifer, IA 84715</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1967,6 +2237,11 @@
         </is>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1975,13 +2250,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Angela Lopez</t>
+          <t>Amy Collier</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04235 Johnson Burgs
-Timothyton, VI 08579</t>
+          <t>159 Wilson Oval
+Hodgebury, DE 57841</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1995,6 +2270,11 @@
         </is>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2003,13 +2283,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chris Espinoza</t>
+          <t>Donald Wright</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5192 Taylor Springs
-Port Katherine, WY 99019</t>
+          <t>3746 Jeffrey Ramp Apt. 064
+Reneemouth, KS 17748</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2023,6 +2303,11 @@
         </is>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2031,13 +2316,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Joseph Stewart</t>
+          <t>Anthony Gilbert</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>55678 Stephen Views
-Port Matthew, TX 71246</t>
+          <t>918 Andrew Highway
+South Amychester, VA 09233</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2051,6 +2336,11 @@
         </is>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2059,13 +2349,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chelsea Cervantes</t>
+          <t>Kelly Gonzales</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>747 Thomas Forges
-South Eriktown, ID 42836</t>
+          <t>52032 Jeffrey Plaza
+West Michaelstad, CO 59034</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2079,6 +2369,11 @@
         </is>
       </c>
       <c r="E59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2087,13 +2382,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Michael Acosta</t>
+          <t>Lisa Wilkinson</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7558 Ashley Squares
-Turnerborough, MH 69388</t>
+          <t>79554 William Shores Suite 013
+West Paul, PA 77826</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2107,6 +2402,11 @@
         </is>
       </c>
       <c r="E60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2115,13 +2415,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bobby Brock</t>
+          <t>Andrew Anthony</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6286 Michael Via
-East Derrickmouth, KY 46300</t>
+          <t>11812 Margaret Garden
+Lake Deanna, AZ 70839</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2135,6 +2435,11 @@
         </is>
       </c>
       <c r="E61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2143,13 +2448,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Laurie Williams</t>
+          <t>Destiny Edwards</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7153 Gloria Branch Apt. 766
-Erinberg, ME 81634</t>
+          <t>88611 Schwartz Well
+Smithburgh, MD 40207</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2163,6 +2468,11 @@
         </is>
       </c>
       <c r="E62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2171,13 +2481,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cameron Tyler</t>
+          <t>Brian Benitez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>267 Bartlett Shoal Apt. 757
-Micheletown, RI 47983</t>
+          <t>356 Daniel Port Suite 863
+Hickshaven, CO 78163</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2191,6 +2501,11 @@
         </is>
       </c>
       <c r="E63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2199,13 +2514,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Harold Nelson</t>
+          <t>Russell Stephens</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>77824 Ballard Cove
-North Jeffreyhaven, LA 93231</t>
+          <t>Unit 2902 Box 8811
+DPO AP 49528</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2219,6 +2534,11 @@
         </is>
       </c>
       <c r="E64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2227,13 +2547,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Evan Thomas</t>
+          <t>William Young</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>64795 Whitaker Route
-Lake John, WI 44514</t>
+          <t>3320 Jimenez Drive Apt. 856
+Jacobsonborough, MS 94990</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2247,6 +2567,11 @@
         </is>
       </c>
       <c r="E65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2255,13 +2580,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Susan Willis</t>
+          <t>Darren Austin</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6347 Byrd Square
-West Marie, NE 41141</t>
+          <t>50045 Ramirez Lock Suite 038
+Lake Katherinestad, ME 77437</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2275,6 +2600,11 @@
         </is>
       </c>
       <c r="E66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2283,13 +2613,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Alex Clark</t>
+          <t>Andrew Hicks</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6028 Gonzalez Corner Apt. 318
-Brandonburgh, AK 25149</t>
+          <t>5544 Robinson Court
+New Cindy, MD 84914</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2303,6 +2633,11 @@
         </is>
       </c>
       <c r="E67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2311,13 +2646,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Derek Brown</t>
+          <t>Maria Clark</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2300 Jackson Mountains Suite 350
-New Mark, NV 46928</t>
+          <t>94758 Lisa Streets Suite 075
+Whitemouth, NM 59520</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2331,6 +2666,11 @@
         </is>
       </c>
       <c r="E68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2339,13 +2679,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jeffrey Clark</t>
+          <t>Deborah Robinson</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2738 Eric Dam Suite 409
-New Leonardhaven, AK 77113</t>
+          <t>569 Melissa Pass
+North Hollychester, AK 96112</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2359,6 +2699,11 @@
         </is>
       </c>
       <c r="E69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2367,13 +2712,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ashley Rosario</t>
+          <t>Heather Flores</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>27890 Hodges Stream Suite 354
-East Joshua, KS 03724</t>
+          <t>468 Jason Tunnel Suite 292
+New Kevin, LA 82228</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2387,6 +2732,11 @@
         </is>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2395,13 +2745,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Robert Turner</t>
+          <t>Jeremy Morgan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>17794 Stacey Groves
-Haleborough, VT 97812</t>
+          <t>Unit 1773 Box 5781
+DPO AE 71577</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2415,6 +2765,11 @@
         </is>
       </c>
       <c r="E71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2423,13 +2778,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jeremy Mathews</t>
+          <t>Mark Thompson</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26699 Jones Center
-North Roger, NE 15288</t>
+          <t>7568 Yvonne Crossing
+Lake Brandon, WI 68662</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2443,6 +2798,11 @@
         </is>
       </c>
       <c r="E72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2451,13 +2811,13 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>William Cooper</t>
+          <t>John Mcfarland</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>116 Laurie Bypass Suite 613
-New Patriciatown, TN 31187</t>
+          <t>50026 Gomez Stream
+Nicoleland, NC 26353</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2471,6 +2831,11 @@
         </is>
       </c>
       <c r="E73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2479,13 +2844,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Amanda Miller</t>
+          <t>Kaitlin Smith</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>22798 Hancock Springs
-West Sarahland, PR 16652</t>
+          <t>4531 Spears Mill
+Nicholasborough, SD 99412</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2499,6 +2864,11 @@
         </is>
       </c>
       <c r="E74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2507,13 +2877,13 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Christopher Knight</t>
+          <t>Thomas Turner</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0266 Bryan Cliff Apt. 826
-Muellershire, UT 10654</t>
+          <t>598 Colton View Apt. 240
+New Eric, NY 42517</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2527,6 +2897,11 @@
         </is>
       </c>
       <c r="E75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2535,13 +2910,13 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>John Fernandez</t>
+          <t>Steven Cooper</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>273 Frye Shoal Apt. 085
-Lake Jeremymouth, NC 85577</t>
+          <t>9828 Lee Viaduct Suite 326
+West Carol, NH 31872</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2555,6 +2930,11 @@
         </is>
       </c>
       <c r="E76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2563,13 +2943,13 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Brian Stewart</t>
+          <t>Matthew Haynes</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>360 Gabriel Brooks Suite 439
-Laurenville, PW 14748</t>
+          <t>252 Kyle Gateway Apt. 307
+East Karenton, CA 70995</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2583,6 +2963,11 @@
         </is>
       </c>
       <c r="E77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2591,13 +2976,13 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Terry Shaw</t>
+          <t>Billy Brooks</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>391 Edward Land
-Charlesfurt, AZ 18951</t>
+          <t>961 Jones Inlet Apt. 342
+Ernestborough, PW 03040</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2611,6 +2996,11 @@
         </is>
       </c>
       <c r="E78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2619,13 +3009,13 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lori Thompson</t>
+          <t>Melissa Williams</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16693 Stout Club Suite 509
-Annabury, MS 76318</t>
+          <t>537 Jasmine Coves Suite 602
+Port Stevenside, MD 45633</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2639,6 +3029,11 @@
         </is>
       </c>
       <c r="E79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2647,13 +3042,13 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Teresa Guzman</t>
+          <t>Steven Taylor</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USNV Schroeder
-FPO AP 14019</t>
+          <t>11337 Samuel Mountains
+South Larry, AR 01199</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2667,6 +3062,11 @@
         </is>
       </c>
       <c r="E80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2675,13 +3075,13 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Stephen Larson</t>
+          <t>Gina Bishop</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6110 Perry Walk
-West Hunter, WV 52390</t>
+          <t>18364 Cochran Row Suite 977
+North Ericaborough, CA 29144</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2695,6 +3095,11 @@
         </is>
       </c>
       <c r="E81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2703,13 +3108,13 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Megan Castillo</t>
+          <t>Anna Harmon</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>073 Sarah Springs
-East Paultown, WA 93175</t>
+          <t>563 Ana Via
+Georgemouth, HI 90900</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2723,6 +3128,11 @@
         </is>
       </c>
       <c r="E82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2731,13 +3141,13 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lori Hernandez</t>
+          <t>Charles Reed</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3937 Berger Points Apt. 688
-New Tinashire, TN 96011</t>
+          <t>94356 Evans Walks
+Gallagherchester, FM 05483</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2751,6 +3161,11 @@
         </is>
       </c>
       <c r="E83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2759,13 +3174,13 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Matthew Rivera</t>
+          <t>Michelle Thompson</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>416 Mitchell Center
-Jonathanview, CT 75520</t>
+          <t>2082 Anthony Coves
+New Michelle, AK 66154</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2779,6 +3194,11 @@
         </is>
       </c>
       <c r="E84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2787,13 +3207,13 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Natalie Brown</t>
+          <t>Melissa Powell</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>245 Campbell Summit
-East David, AS 49820</t>
+          <t>106 Terry Isle Suite 804
+Leblancborough, PR 21136</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2807,6 +3227,11 @@
         </is>
       </c>
       <c r="E85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2815,13 +3240,13 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Edward Baker</t>
+          <t>Julia Burns</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>285 Paula Court
-Heidistad, AL 73866</t>
+          <t>77706 Marcus Glen Suite 882
+Adammouth, ME 98046</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2835,6 +3260,11 @@
         </is>
       </c>
       <c r="E86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2843,13 +3273,13 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Matthew Berger</t>
+          <t>Dawn Reeves</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>77452 Jeremy Ridge
-Frazierport, TX 21322</t>
+          <t>08874 Scott Canyon
+South Michael, FM 30661</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2863,6 +3293,11 @@
         </is>
       </c>
       <c r="E87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2871,13 +3306,13 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ian Hill</t>
+          <t>Bobby Evans</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>238 Emily Streets
-North Jamesview, AS 69166</t>
+          <t>0487 Davis Roads Suite 894
+East Madisonfort, ND 72894</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2891,6 +3326,11 @@
         </is>
       </c>
       <c r="E88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2899,13 +3339,13 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Larry Bond</t>
+          <t>Samuel Robinson</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0915 Hoffman Way Suite 537
-South Rachel, ND 87347</t>
+          <t>9952 Aaron Lodge
+East David, AK 01298</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2919,6 +3359,11 @@
         </is>
       </c>
       <c r="E89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2927,13 +3372,13 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Devin Bennett</t>
+          <t>Travis Walker</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>161 Edwards Highway
-Millerville, DE 30403</t>
+          <t>USNV Burton
+FPO AE 69425</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2947,6 +3392,11 @@
         </is>
       </c>
       <c r="E90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2955,13 +3405,13 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jamie Douglas</t>
+          <t>Brandon Adams</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>06474 Lopez Estates Suite 291
-South Douglasview, TX 96466</t>
+          <t>546 Lawson Landing Apt. 040
+West Bonnie, DE 04265</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2975,6 +3425,11 @@
         </is>
       </c>
       <c r="E91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2983,13 +3438,13 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jennifer Pearson</t>
+          <t>Deborah Chambers</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USCGC Ortiz
-FPO AE 62009</t>
+          <t>335 Raymond Isle
+Port Michael, TX 35320</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3003,6 +3458,11 @@
         </is>
       </c>
       <c r="E92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3011,13 +3471,13 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cole Smith</t>
+          <t>Jennifer Berger</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4208 Austin Plains
-North Julie, CT 30129</t>
+          <t>465 Teresa Trafficway
+Port Kristenburgh, IA 79012</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3031,6 +3491,11 @@
         </is>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3039,13 +3504,13 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jerry Watson</t>
+          <t>David Cowan</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>966 Meredith Brook
-North Caleb, DC 49755</t>
+          <t>9341 Maldonado Dale Suite 201
+Madisonborough, GU 77967</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3059,6 +3524,11 @@
         </is>
       </c>
       <c r="E94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3067,13 +3537,13 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Michael Carson</t>
+          <t>Heidi Burns</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>8116 Harmon Glen
-Alecton, MH 13163</t>
+          <t>64760 Giles Rest Suite 860
+Shanehaven, LA 24817</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3087,6 +3557,11 @@
         </is>
       </c>
       <c r="E95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3095,13 +3570,13 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Joshua Perez</t>
+          <t>Michael Reed</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>26499 Michael Plaza Suite 155
-Kimberlymouth, FM 27349</t>
+          <t>31903 Pierce Lane Apt. 042
+Jonathonbury, IA 17626</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3115,6 +3590,11 @@
         </is>
       </c>
       <c r="E96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3123,13 +3603,13 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Christine Ali</t>
+          <t>Anita Lopez</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>574 Benjamin Forks
-Port Kelsey, VI 54953</t>
+          <t>PSC 1926, Box 5533
+APO AA 62422</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3143,6 +3623,11 @@
         </is>
       </c>
       <c r="E97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3151,13 +3636,13 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Holly Anderson</t>
+          <t>Kylie Williams</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>94556 Jennifer Lane Suite 547
-Kevinborough, MN 35479</t>
+          <t>54337 Kerry Ranch Apt. 792
+East Marisaberg, WV 87336</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3171,6 +3656,11 @@
         </is>
       </c>
       <c r="E98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3179,13 +3669,13 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Craig Clay</t>
+          <t>Jessica Randall</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8591 Harvey Ports Suite 961
-Matthewberg, MT 08218</t>
+          <t>50213 Wheeler Isle
+Lopezville, IL 14511</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3199,6 +3689,11 @@
         </is>
       </c>
       <c r="E99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3207,13 +3702,13 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bruce Sexton</t>
+          <t>Theresa Turner</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>55666 Sandra Skyway
-Lake Jenniferborough, RI 27018</t>
+          <t>200 April Field
+New Dennisview, NJ 19441</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3227,6 +3722,11 @@
         </is>
       </c>
       <c r="E100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3235,13 +3735,13 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Shannon Heath MD</t>
+          <t>Alexandra Jacobs</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>57730 Steven Isle
-Codyside, SC 00648</t>
+          <t>975 Phillips Field Apt. 477
+Coopermouth, NJ 84029</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3255,6 +3755,11 @@
         </is>
       </c>
       <c r="E101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Log in at 14:48:07', "Searched for term: 'joseph'", 'Borrowed book with id: 7 at 14:48:32']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -522,12 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Log in at 14:48:07', "Searched for term: 'joseph'", 'Borrowed book with id: 7 at 14:48:32']</t>
+          <t>['Log in at 14:48:07', "Searched for term: 'joseph'", 'Borrowed book with id: 7 at 14:48:32', 'Log in at 12:21:30', 'Log in at 12:24:19']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Log in at 12:11:33', 'Log in at 12:23:34']</t>
         </is>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,12 +479,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Log in at 09:36:39', 'Reserved book with id: 10 at 09:36:39', 'Borrowed book with id: 2 at 09:36:39', 'Log out at 09:36:39']</t>
         </is>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOM\Desktop\Opgaver\Uge 6\CaseOpgave1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92CCC2-9C71-49C5-9EB0-DD6E46389719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD9922F-00C1-411B-9038-FE575EB66FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
